--- a/execlUtils/app/src/main/res/raw/test.xlsx
+++ b/execlUtils/app/src/main/res/raw/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\53\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB6B441-B01D-4375-A4B2-174849159895}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8718E3B-215E-4330-B18D-8C1D47A60866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,29 +25,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>头部1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+  <si>
+    <t>银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6210 1234 0000 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6210 1234 0001 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6211 1234 1111 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62121234 0011 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6213 1234 0111 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214 1234 1111 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6212 1234 0011 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6212 1234 0111 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6212 1234 1111 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6213 1234 0011 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62105 1234 0111 1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,8 +207,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -373,15 +492,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,191 +519,159 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>54321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>55555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>111</v>
-      </c>
-      <c r="D2">
-        <v>1111</v>
-      </c>
-      <c r="E2">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>11111</v>
       </c>
-      <c r="F2">
-        <v>111111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>41222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>79342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>7523321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
-        <v>222</v>
-      </c>
-      <c r="D3">
-        <v>2222</v>
-      </c>
-      <c r="E3">
-        <v>22222</v>
-      </c>
-      <c r="F3">
-        <v>222222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C4">
-        <v>333</v>
-      </c>
-      <c r="D4">
-        <v>3333</v>
-      </c>
-      <c r="E4">
-        <v>33333</v>
-      </c>
-      <c r="F4">
-        <v>333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>44</v>
-      </c>
-      <c r="C5">
-        <v>444</v>
-      </c>
-      <c r="D5">
-        <v>4444</v>
-      </c>
-      <c r="E5">
-        <v>44444</v>
-      </c>
-      <c r="F5">
-        <v>444444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>55</v>
-      </c>
-      <c r="C6">
-        <v>555</v>
-      </c>
-      <c r="D6">
-        <v>5555</v>
-      </c>
-      <c r="E6">
-        <v>55555</v>
-      </c>
-      <c r="F6">
-        <v>555555</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>66</v>
-      </c>
-      <c r="C7">
-        <v>666</v>
-      </c>
-      <c r="D7">
-        <v>6666</v>
-      </c>
-      <c r="E7">
-        <v>66666</v>
-      </c>
-      <c r="F7">
-        <v>666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>77</v>
-      </c>
-      <c r="C8">
-        <v>777</v>
-      </c>
-      <c r="D8">
-        <v>7777</v>
-      </c>
-      <c r="E8">
-        <v>77777</v>
-      </c>
-      <c r="F8">
-        <v>777777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>88</v>
-      </c>
-      <c r="C9">
-        <v>888</v>
-      </c>
-      <c r="D9">
-        <v>8888</v>
-      </c>
-      <c r="E9">
-        <v>88888</v>
-      </c>
-      <c r="F9">
-        <v>888888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>99</v>
-      </c>
-      <c r="C10">
-        <v>999</v>
-      </c>
-      <c r="D10">
-        <v>9999</v>
-      </c>
-      <c r="E10">
-        <v>99999</v>
-      </c>
-      <c r="F10">
-        <v>999999</v>
+      <c r="D12">
+        <v>123512</v>
       </c>
     </row>
   </sheetData>
